--- a/src/main/resources/TestData/MyProject.xlsx
+++ b/src/main/resources/TestData/MyProject.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="9465" windowHeight="6390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SignIn" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Search" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1:G19"/>
 </workbook>
 </file>
 
@@ -422,7 +423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -460,7 +461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
